--- a/biology/Botanique/Henri_Prat_(biologiste)/Henri_Prat_(biologiste).xlsx
+++ b/biology/Botanique/Henri_Prat_(biologiste)/Henri_Prat_(biologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Prat, né le 20 août 1902 à Saint-Germain-en-Laye et mort le 18 février 1981 à Aubagne[1], est un biologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Prat, né le 20 août 1902 à Saint-Germain-en-Laye et mort le 18 février 1981 à Aubagne, est un biologiste français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Prat passe un baccalauréat en sciences (1920) et entre à l'École normale supérieure[2] (promotion 1922)[3]. Il obtient une licence en physique et chimie (1922) et est classé premier à l'agrégation de sciences naturelles en 1926. Après un stage à l'Armée du Rhin et un an de professorat en Algérie, il revient à la rue d'Ulm comme agrégé-préparateur auprès du professeur Louis Blaringhem. 
-En 1929, il fait la connaissance du botaniste canadien Marie-Victorin qui fait une escale à Paris avant de rendre à un congrès au Cap. Les deux hommes font ensemble quelques excursions et herborisations. Henri Prat fait si bonne impression au frère Marie-Victorin que celui-ci le recommandera pour la chaire de biologie de l'Université de Montréal quelques années plus tard[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Prat passe un baccalauréat en sciences (1920) et entre à l'École normale supérieure (promotion 1922). Il obtient une licence en physique et chimie (1922) et est classé premier à l'agrégation de sciences naturelles en 1926. Après un stage à l'Armée du Rhin et un an de professorat en Algérie, il revient à la rue d'Ulm comme agrégé-préparateur auprès du professeur Louis Blaringhem. 
+En 1929, il fait la connaissance du botaniste canadien Marie-Victorin qui fait une escale à Paris avant de rendre à un congrès au Cap. Les deux hommes font ensemble quelques excursions et herborisations. Henri Prat fait si bonne impression au frère Marie-Victorin que celui-ci le recommandera pour la chaire de biologie de l'Université de Montréal quelques années plus tard.
 Henri Prat obtient son doctorat ès sciences en 1931, avec une thèse sur L'Épiderme des Graminées.    
-Cette même année, il entre à l'Université de Montréal comme professeur et directeur de l'Institut de biologie (1931-1935). Il dispense notamment des cours de zoologie et de pédagogie des sciences naturelles, où il aura comme élève Marcelle Gauvreau[5]. De 1935 à 1945, il est en France où il occupe diverses fonctions, dont celle de professeur à la Faculté des Sciences de l'Université d'Aix-Marseille (1936-1946). 
+Cette même année, il entre à l'Université de Montréal comme professeur et directeur de l'Institut de biologie (1931-1935). Il dispense notamment des cours de zoologie et de pédagogie des sciences naturelles, où il aura comme élève Marcelle Gauvreau. De 1935 à 1945, il est en France où il occupe diverses fonctions, dont celle de professeur à la Faculté des Sciences de l'Université d'Aix-Marseille (1936-1946). 
 De retour à l'Université de Montréal en 1945, il reprend son poste de professeur et est à nouveau nommé directeur de l'Institut de biologie (1949-1955), qui devient le Département de sciences biologiques. Au cours de ces années, il occupe la présidence de diverses sociétés scientifiques, dont la Société canadienne d'histoire naturelle (1947-1948) et la Société de biologie de Montréal (1950-1951). 
 Entre 1926 et 1957, Henri Prat publie 114 articles et ouvrages et l'Université de Montréal lui décerne un doctorat honoris causa en 1945. Il quitte l'Université en 1960 pour reprendre son poste à l'Université de Marseille où il demeure jusqu'à sa retraite en 1975.
 </t>
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Etude des mycorhizes du « Taxus baccata », Corbeil, 1926
 L'Épiderme des graminées. Étude anatomique et systématique, dans Thèses présentées à la Faculté des sciences de Paris pour obtenir le grade de docteur ès sciences naturelles, Paris, Masson, 1931
